--- a/ui-testsuite/src/main/resources/TestData/Order_Assign_AMS_AssignmentRule.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Assign_AMS_AssignmentRule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CA$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="168">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -419,6 +419,120 @@
   </si>
   <si>
     <t>Solutions - IM</t>
+  </si>
+  <si>
+    <t>lhcmtj7333483190</t>
+  </si>
+  <si>
+    <t>3292383112</t>
+  </si>
+  <si>
+    <t>zxmngb5309990552</t>
+  </si>
+  <si>
+    <t>7831551959</t>
+  </si>
+  <si>
+    <t>yldgbo1669974984</t>
+  </si>
+  <si>
+    <t>9102435622</t>
+  </si>
+  <si>
+    <t>mwyrfr3817639964</t>
+  </si>
+  <si>
+    <t>6491921426</t>
+  </si>
+  <si>
+    <t>mrualt1483038060</t>
+  </si>
+  <si>
+    <t>3916872743</t>
+  </si>
+  <si>
+    <t>jgweuq9465691539</t>
+  </si>
+  <si>
+    <t>0513034784</t>
+  </si>
+  <si>
+    <t>snvtdr2360792807</t>
+  </si>
+  <si>
+    <t>0641910689</t>
+  </si>
+  <si>
+    <t>2761711649</t>
+  </si>
+  <si>
+    <t>vicspb3751290681</t>
+  </si>
+  <si>
+    <t>1661687653</t>
+  </si>
+  <si>
+    <t>9471046372</t>
+  </si>
+  <si>
+    <t>jokrtx1256164261</t>
+  </si>
+  <si>
+    <t>5764912658</t>
+  </si>
+  <si>
+    <t>8723305032</t>
+  </si>
+  <si>
+    <t>qxuoqr6045927501</t>
+  </si>
+  <si>
+    <t>6721844228</t>
+  </si>
+  <si>
+    <t>zsrctp5223472538</t>
+  </si>
+  <si>
+    <t>9256724379</t>
+  </si>
+  <si>
+    <t>2071919739</t>
+  </si>
+  <si>
+    <t>rxpeei0368203426</t>
+  </si>
+  <si>
+    <t>5226627862</t>
+  </si>
+  <si>
+    <t>8057378258</t>
+  </si>
+  <si>
+    <t>tyiazb2398219576</t>
+  </si>
+  <si>
+    <t>4182446378</t>
+  </si>
+  <si>
+    <t>0058199663</t>
+  </si>
+  <si>
+    <t>yxtwbw7265148255</t>
+  </si>
+  <si>
+    <t>2745898640</t>
+  </si>
+  <si>
+    <t>1374135568</t>
+  </si>
+  <si>
+    <t>irmezm7596836149</t>
+  </si>
+  <si>
+    <t>0064196480</t>
+  </si>
+  <si>
+    <t>3751990358</t>
   </si>
 </sst>
 </file>
@@ -428,7 +542,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -469,6 +583,81 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -896,80 +1085,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD4" sqref="BD4"/>
+      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="138.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="108.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="117.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="87.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="87.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="138.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="108.5" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="117.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="86.33203125" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="44.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="34.1640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
@@ -1222,10 +1411,10 @@
         <v>108</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>110</v>
@@ -1236,8 +1425,8 @@
       <c r="H2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="14">
-        <v>966666</v>
+      <c r="I2" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>93</v>
@@ -1350,7 +1539,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>83</v>
@@ -1435,10 +1624,10 @@
         <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>110</v>
@@ -1449,8 +1638,8 @@
       <c r="H3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="14">
-        <v>966666</v>
+      <c r="I3" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>93</v>
@@ -1558,7 +1747,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>83</v>
@@ -1635,10 +1824,10 @@
         <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>110</v>
@@ -1649,8 +1838,8 @@
       <c r="H4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="14">
-        <v>966666</v>
+      <c r="I4" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>93</v>
@@ -1758,7 +1947,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>83</v>
@@ -1835,10 +2024,10 @@
         <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>110</v>
@@ -1849,8 +2038,8 @@
       <c r="H5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="14">
-        <v>966666</v>
+      <c r="I5" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>93</v>
@@ -1958,7 +2147,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>83</v>
@@ -2038,7 +2227,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>110</v>
@@ -2049,8 +2238,8 @@
       <c r="H6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="14">
-        <v>966666</v>
+      <c r="I6" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>93</v>
@@ -2158,7 +2347,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>83</v>
@@ -2238,7 +2427,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>110</v>
@@ -2249,8 +2438,8 @@
       <c r="H7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="14">
-        <v>966666</v>
+      <c r="I7" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>93</v>
@@ -2358,7 +2547,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>83</v>
@@ -2438,7 +2627,7 @@
         <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>110</v>
@@ -2449,8 +2638,8 @@
       <c r="H8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="14">
-        <v>966666</v>
+      <c r="I8" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>93</v>
@@ -2558,7 +2747,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>83</v>
@@ -2638,7 +2827,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>110</v>
@@ -2649,8 +2838,8 @@
       <c r="H9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="14">
-        <v>966666</v>
+      <c r="I9" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>93</v>
@@ -2758,7 +2947,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>83</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_Assign_AMS_AssignmentRule.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Assign_AMS_AssignmentRule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="171">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -533,6 +533,15 @@
   </si>
   <si>
     <t>3751990358</t>
+  </si>
+  <si>
+    <t>ekihgc8971306697</t>
+  </si>
+  <si>
+    <t>8287249392</t>
+  </si>
+  <si>
+    <t>0561962480</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -583,6 +592,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1414,7 +1428,7 @@
         <v>151</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>110</v>
@@ -1426,7 +1440,7 @@
         <v>112</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>93</v>
@@ -1539,7 +1553,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>83</v>
@@ -1627,7 +1641,7 @@
         <v>151</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>110</v>
@@ -1639,7 +1653,7 @@
         <v>112</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>93</v>
@@ -1747,7 +1761,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>83</v>
@@ -1827,7 +1841,7 @@
         <v>151</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>110</v>
@@ -1839,7 +1853,7 @@
         <v>112</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>93</v>
@@ -1947,7 +1961,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>83</v>
@@ -2027,7 +2041,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>110</v>
@@ -2039,7 +2053,7 @@
         <v>112</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>93</v>
@@ -2147,7 +2161,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>83</v>
@@ -2227,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>110</v>
@@ -2239,7 +2253,7 @@
         <v>112</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>93</v>
@@ -2347,7 +2361,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>83</v>
@@ -2427,7 +2441,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>110</v>
@@ -2439,7 +2453,7 @@
         <v>112</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>93</v>
@@ -2547,7 +2561,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>83</v>
@@ -2627,7 +2641,7 @@
         <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>110</v>
@@ -2639,7 +2653,7 @@
         <v>112</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>93</v>
@@ -2747,7 +2761,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>83</v>
@@ -2827,7 +2841,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>110</v>
@@ -2839,7 +2853,7 @@
         <v>112</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>93</v>
@@ -2947,7 +2961,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>83</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_Assign_AMS_AssignmentRule.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Assign_AMS_AssignmentRule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CA$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="137">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -391,15 +391,9 @@
     <t>84Z145987001-HPSW78</t>
   </si>
   <si>
-    <t>3e456r56t</t>
-  </si>
-  <si>
     <t>AMS</t>
   </si>
   <si>
-    <t>AR970001764</t>
-  </si>
-  <si>
     <t>ITOM</t>
   </si>
   <si>
@@ -409,132 +403,15 @@
     <t>I9</t>
   </si>
   <si>
-    <t>AR970005708</t>
-  </si>
-  <si>
-    <t>AR970005709</t>
-  </si>
-  <si>
     <t>Platform - VERTICA</t>
   </si>
   <si>
     <t>Solutions - IM</t>
   </si>
   <si>
-    <t>lhcmtj7333483190</t>
-  </si>
-  <si>
-    <t>3292383112</t>
-  </si>
-  <si>
-    <t>zxmngb5309990552</t>
-  </si>
-  <si>
-    <t>7831551959</t>
-  </si>
-  <si>
-    <t>yldgbo1669974984</t>
-  </si>
-  <si>
-    <t>9102435622</t>
-  </si>
-  <si>
-    <t>mwyrfr3817639964</t>
-  </si>
-  <si>
-    <t>6491921426</t>
-  </si>
-  <si>
-    <t>mrualt1483038060</t>
-  </si>
-  <si>
-    <t>3916872743</t>
-  </si>
-  <si>
-    <t>jgweuq9465691539</t>
-  </si>
-  <si>
-    <t>0513034784</t>
-  </si>
-  <si>
-    <t>snvtdr2360792807</t>
-  </si>
-  <si>
-    <t>0641910689</t>
-  </si>
-  <si>
-    <t>2761711649</t>
-  </si>
-  <si>
-    <t>vicspb3751290681</t>
-  </si>
-  <si>
-    <t>1661687653</t>
-  </si>
-  <si>
-    <t>9471046372</t>
-  </si>
-  <si>
-    <t>jokrtx1256164261</t>
-  </si>
-  <si>
-    <t>5764912658</t>
-  </si>
-  <si>
-    <t>8723305032</t>
-  </si>
-  <si>
     <t>qxuoqr6045927501</t>
   </si>
   <si>
-    <t>6721844228</t>
-  </si>
-  <si>
-    <t>zsrctp5223472538</t>
-  </si>
-  <si>
-    <t>9256724379</t>
-  </si>
-  <si>
-    <t>2071919739</t>
-  </si>
-  <si>
-    <t>rxpeei0368203426</t>
-  </si>
-  <si>
-    <t>5226627862</t>
-  </si>
-  <si>
-    <t>8057378258</t>
-  </si>
-  <si>
-    <t>tyiazb2398219576</t>
-  </si>
-  <si>
-    <t>4182446378</t>
-  </si>
-  <si>
-    <t>0058199663</t>
-  </si>
-  <si>
-    <t>yxtwbw7265148255</t>
-  </si>
-  <si>
-    <t>2745898640</t>
-  </si>
-  <si>
-    <t>1374135568</t>
-  </si>
-  <si>
-    <t>irmezm7596836149</t>
-  </si>
-  <si>
-    <t>0064196480</t>
-  </si>
-  <si>
-    <t>3751990358</t>
-  </si>
-  <si>
     <t>ekihgc8971306697</t>
   </si>
   <si>
@@ -542,6 +419,27 @@
   </si>
   <si>
     <t>0561962480</t>
+  </si>
+  <si>
+    <t>9O</t>
+  </si>
+  <si>
+    <t>rkyejq2788989095</t>
+  </si>
+  <si>
+    <t>2072552549</t>
+  </si>
+  <si>
+    <t>6706242094</t>
+  </si>
+  <si>
+    <t>ossywy1045687679</t>
+  </si>
+  <si>
+    <t>2145512363</t>
+  </si>
+  <si>
+    <t>0494063210</t>
   </si>
 </sst>
 </file>
@@ -551,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -592,76 +490,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1099,9 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1"/>
+      <selection pane="bottomLeft" activeCell="BD4" sqref="BD4:BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1425,10 +1253,10 @@
         <v>108</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>110</v>
@@ -1440,7 +1268,7 @@
         <v>112</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>93</v>
@@ -1553,7 +1381,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>83</v>
@@ -1600,7 +1428,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO2" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP2" s="20" t="s">
         <v>102</v>
@@ -1638,10 +1466,10 @@
         <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>110</v>
@@ -1653,7 +1481,7 @@
         <v>112</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>93</v>
@@ -1761,7 +1589,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>83</v>
@@ -1779,7 +1607,7 @@
         <v>9</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>86</v>
@@ -1806,7 +1634,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP3" s="2" t="s">
         <v>102</v>
@@ -1838,10 +1666,10 @@
         <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>110</v>
@@ -1853,7 +1681,7 @@
         <v>112</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>93</v>
@@ -1961,7 +1789,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>83</v>
@@ -1979,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>86</v>
@@ -2006,7 +1834,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP4" s="2" t="s">
         <v>102</v>
@@ -2038,10 +1866,10 @@
         <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>110</v>
@@ -2053,7 +1881,7 @@
         <v>112</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>93</v>
@@ -2161,7 +1989,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>83</v>
@@ -2179,7 +2007,7 @@
         <v>9</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>86</v>
@@ -2206,7 +2034,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP5" s="2" t="s">
         <v>102</v>
@@ -2241,7 +2069,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>110</v>
@@ -2253,7 +2081,7 @@
         <v>112</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>93</v>
@@ -2361,7 +2189,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>83</v>
@@ -2379,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>86</v>
@@ -2406,7 +2234,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP6" s="2" t="s">
         <v>102</v>
@@ -2441,7 +2269,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>110</v>
@@ -2453,7 +2281,7 @@
         <v>112</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>93</v>
@@ -2561,7 +2389,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>83</v>
@@ -2579,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>86</v>
@@ -2606,7 +2434,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP7" s="2" t="s">
         <v>102</v>
@@ -2641,7 +2469,7 @@
         <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>110</v>
@@ -2653,7 +2481,7 @@
         <v>112</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>93</v>
@@ -2706,8 +2534,8 @@
       <c r="Z8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA8" s="24">
-        <v>90</v>
+      <c r="AA8" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>91</v>
@@ -2761,7 +2589,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>83</v>
@@ -2779,7 +2607,7 @@
         <v>9</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>86</v>
@@ -2806,7 +2634,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP8" s="2" t="s">
         <v>102</v>
@@ -2841,7 +2669,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>110</v>
@@ -2853,7 +2681,7 @@
         <v>112</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>93</v>
@@ -2907,7 +2735,7 @@
         <v>80</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>91</v>
@@ -2961,7 +2789,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>83</v>
@@ -2979,7 +2807,7 @@
         <v>9</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>86</v>
@@ -3006,7 +2834,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP9" s="2" t="s">
         <v>102</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_Assign_AMS_AssignmentRule.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Assign_AMS_AssignmentRule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="146">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -440,6 +440,33 @@
   </si>
   <si>
     <t>0494063210</t>
+  </si>
+  <si>
+    <t>odrctj4786242992</t>
+  </si>
+  <si>
+    <t>1213038306</t>
+  </si>
+  <si>
+    <t>9687967307</t>
+  </si>
+  <si>
+    <t>aodnvs1551360242</t>
+  </si>
+  <si>
+    <t>1845277076</t>
+  </si>
+  <si>
+    <t>8319009321</t>
+  </si>
+  <si>
+    <t>vnorlr2327523050</t>
+  </si>
+  <si>
+    <t>9226624645</t>
+  </si>
+  <si>
+    <t>3798883283</t>
   </si>
 </sst>
 </file>
@@ -449,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -490,6 +517,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1256,7 +1298,7 @@
         <v>126</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>110</v>
@@ -1268,7 +1310,7 @@
         <v>112</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>93</v>
@@ -1381,7 +1423,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>83</v>
@@ -1469,7 +1511,7 @@
         <v>126</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>110</v>
@@ -1481,7 +1523,7 @@
         <v>112</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>93</v>
@@ -1589,7 +1631,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>83</v>
@@ -1669,7 +1711,7 @@
         <v>126</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>110</v>
@@ -1681,7 +1723,7 @@
         <v>112</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>93</v>
@@ -1789,7 +1831,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>83</v>
@@ -1869,7 +1911,7 @@
         <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>110</v>
@@ -1881,7 +1923,7 @@
         <v>112</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>93</v>
@@ -1989,7 +2031,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>83</v>
@@ -2069,7 +2111,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>110</v>
@@ -2081,7 +2123,7 @@
         <v>112</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>93</v>
@@ -2189,7 +2231,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>83</v>
@@ -2269,7 +2311,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>110</v>
@@ -2281,7 +2323,7 @@
         <v>112</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>93</v>
@@ -2389,7 +2431,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>83</v>
@@ -2469,7 +2511,7 @@
         <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>110</v>
@@ -2481,7 +2523,7 @@
         <v>112</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>93</v>
@@ -2589,7 +2631,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>83</v>
@@ -2669,7 +2711,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>110</v>
@@ -2681,7 +2723,7 @@
         <v>112</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>93</v>
@@ -2789,7 +2831,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>83</v>
